--- a/documentation/quality/ALS - Test Cases.xlsx
+++ b/documentation/quality/ALS - Test Cases.xlsx
@@ -9,12 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="629" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Documentation" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Registration and Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Calendar View" sheetId="3" r:id="rId3"/>
+    <sheet name="Reading View" sheetId="6" r:id="rId4"/>
+    <sheet name="Event View" sheetId="4" r:id="rId5"/>
+    <sheet name="Link Redirection" sheetId="7" r:id="rId6"/>
+    <sheet name="CRUD" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Verdict">'Registration and Login'!$I$9:$I$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +33,498 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.1 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USER REGISTRATION AND LOGIN SECURITY</t>
+    </r>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Not Run</t>
+  </si>
+  <si>
+    <t>TC Number</t>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Observed Output</t>
+  </si>
+  <si>
+    <t>Verdict</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Case validates the following: 
+• User is registered with a viable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of his/her choice
+• Username and password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>works effectively</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>User Site Access</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System displays the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main page.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>User Site Registration</t>
+  </si>
+  <si>
+    <t>User must enter link in browser's searchbar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System displays the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register page.</t>
+    </r>
+  </si>
+  <si>
+    <t>• User can access site's Main page.</t>
+  </si>
+  <si>
+    <t>Ang Salita Ng Diyos Liturgical Site</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Instructions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perform the instructions in the Input column, given the existing pre-conditions. Derive the verdict (in dropdown format), based on the Expected Output in contrast with the Observed Output.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.2.1</t>
+  </si>
+  <si>
+    <t>User must click the Signup link</t>
+  </si>
+  <si>
+    <t>User must enter their username</t>
+  </si>
+  <si>
+    <t>• User can access site's Signup page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System accepts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alphanumeric username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System accepts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>users' email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System accepts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>users' password</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.2.2</t>
+  </si>
+  <si>
+    <t>3.1.2.3</t>
+  </si>
+  <si>
+    <t>3.1.2.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System must accept user entries, and redirect user to a confirmation of their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>successful signup</t>
+    </r>
+  </si>
+  <si>
+    <t>User Site Login</t>
+  </si>
+  <si>
+    <t>User must click the Login link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System displays the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login page.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.3.1</t>
+  </si>
+  <si>
+    <t>• User can access site's Login page.</t>
+  </si>
+  <si>
+    <t>3.1.3.2</t>
+  </si>
+  <si>
+    <t>User must enter their email</t>
+  </si>
+  <si>
+    <t>User must enter their password</t>
+  </si>
+  <si>
+    <t>User must be able to click the Remember me checkbox</t>
+  </si>
+  <si>
+    <t>Checkbox must be verified as 'ticked' or 'unticked'</t>
+  </si>
+  <si>
+    <t>User must verify the content of their textfields and then click Signup</t>
+  </si>
+  <si>
+    <t>User must verify the content of their textfields and then click Login</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System must accept user entries, and redirect user to a confirmation of their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>successful login</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.3.3</t>
+  </si>
+  <si>
+    <t>3.1.3.4</t>
+  </si>
+  <si>
+    <t>Test Case validates the following: 
+• The events being displayed are in line with the client’s requirements
+• The events being displayed are identical to the data presently stored in the database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.2 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVENT DISPLAY CORRECTNESS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.3 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMPLETENESS OF EVENTS BEING DISPLAYED (READING VIEW)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case validates the following: 
+• The data present in the calendar are complete and conforms to the populated data</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Test Case validates the following: 
+• The events displayed in the calendar are readable and are recognizable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.4 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>READABILITY OF CALENDAR EVENTS (EVENT VIEW)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.5 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USABILITY OF CALENDAR LINKS (LINK REDIRECTION)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.5 FUNCTIONAL TEST CASES FOR USE CASE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> USABILITY OF CALENDAR LINKS (LINK REDIRECTION)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case validates the following: 
+• The links properly redirect the user to the necessary audio files / text files / websites</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case validates the following: 
+• Administrator privileges are well-defined
+• CRUD performs required functionality
+</t>
+  </si>
+  <si>
+    <t>Test Case validates the following: 
+• Administrator privileges are well-defined
+• CRUD performs required functionality</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.6 FUNCTIONAL TEST CASES FOR USE CASE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DYNAMISM OF ADMINISTRATOR AND USER PRIVILEGES (CRUD)</t>
+    </r>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>To see full documentation visit: GIT &gt; DOCUMENTATION &gt; QUALITY &gt; TEST CASE.DOC</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -153,8 +652,152 @@
       </rPr>
       <t xml:space="preserve">
 This test case document discusses the flow of events that would be expected in normal conditions as well as any potential alternate flow of events, and exceptions/errors that may be expected during the usage of the system.
-To see full documentation visit: GIT &gt; DOCUMENTATION &gt; QUALITY &gt; TEST CASE.DOC
 </t>
+    </r>
+  </si>
+  <si>
+    <t>Ang Salita Ng Diyos Liturgical Site: Test Case</t>
+  </si>
+  <si>
+    <t>To see document version, visit same page &gt; ALS - Test Case Document</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>Calendar Display</t>
+  </si>
+  <si>
+    <t>• User can access the Calendar page.</t>
+  </si>
+  <si>
+    <t>User must go through the calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System displays the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calendar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calendar Display Inspection</t>
+  </si>
+  <si>
+    <t>System displays events in the calendar</t>
+  </si>
+  <si>
+    <t>Calendar Display Verification</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1.2</t>
+  </si>
+  <si>
+    <t>User must be able to identify events displayed in the calendar</t>
+  </si>
+  <si>
+    <t>User must be able to check the spelling of each displayed event in the calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System displays events in the calendar in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>correct spelling</t>
+    </r>
+  </si>
+  <si>
+    <t>• Tester can access calendar
+• Tester has access to database or sql file</t>
+  </si>
+  <si>
+    <t>Tester must verify events displayed from existing dates located in the database</t>
+  </si>
+  <si>
+    <t>Calendar Display Refresh</t>
+  </si>
+  <si>
+    <t>3.2.2.1</t>
+  </si>
+  <si>
+    <t>User must be able to see the calendar page's display</t>
+  </si>
+  <si>
+    <t>User must refresh the page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System must not add any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes in the events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the calendar after refresh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">displays events </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>located in the database</t>
     </r>
   </si>
 </sst>
@@ -162,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +826,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +850,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -200,21 +858,1304 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -225,6 +2166,674 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579345</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22412" y="22412"/>
+          <a:ext cx="556933" cy="556933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="14249399"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="14268449"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="8381999"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="8305799"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="295274"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971551" cy="971551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962024" y="8343899"/>
+          <a:ext cx="971551" cy="971551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:S25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,73 +3110,15 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1028,23 +3579,4354 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S25"/>
+    <mergeCell ref="A4:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H3:I6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="92" priority="19" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="20" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="21" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D4:F5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="H11" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="39"/>
+      <c r="H47" s="45">
+        <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="39"/>
+      <c r="H48" s="45">
+        <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="H49" s="45">
+        <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I11">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I38">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Not Run">
+      <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Not Run"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry" error="Please select from the dropdown list. Thank you." sqref="I16:I38">
+      <formula1>Verdict</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/quality/ALS - Test Cases.xlsx
+++ b/documentation/quality/ALS - Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV-IT111\apc-softdev-it111-05\documentation\quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV_IT111(GRP 5)\apc-softdev-it111-05\documentation\quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="629" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="629" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Documentation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -799,6 +799,111 @@
       </rPr>
       <t>located in the database</t>
     </r>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>Events Display</t>
+  </si>
+  <si>
+    <t>User must be able to read calendar events</t>
+  </si>
+  <si>
+    <t>User must be able to see different readings</t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.3.2</t>
+  </si>
+  <si>
+    <t>System displays different readings in a date</t>
+  </si>
+  <si>
+    <t>User must be able to see events in every date of the month</t>
+  </si>
+  <si>
+    <t>System displays a calendar month filled with events</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>Event Navigation</t>
+  </si>
+  <si>
+    <t>User must be able to navigate to different year</t>
+  </si>
+  <si>
+    <t>System displays a calendar with specific year</t>
+  </si>
+  <si>
+    <t>User must be able to navigate to different months of a year</t>
+  </si>
+  <si>
+    <t>System displays a calendar with specific month</t>
+  </si>
+  <si>
+    <t>3.3.4.1</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>3.4.2.1</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>3.4.3.1</t>
+  </si>
+  <si>
+    <t>3.4.3.2</t>
+  </si>
+  <si>
+    <t>3.4.4</t>
+  </si>
+  <si>
+    <t>Event Style</t>
+  </si>
+  <si>
+    <t>Calendar events are readable enough</t>
+  </si>
+  <si>
+    <t>Font color of events is not too dark or not too light</t>
+  </si>
+  <si>
+    <t>Font size of events is not too big or not too small</t>
+  </si>
+  <si>
+    <t>3.4.4.1</t>
+  </si>
+  <si>
+    <t>3.4.4.2</t>
+  </si>
+  <si>
+    <t>Events are displayed visually aligned</t>
+  </si>
+  <si>
+    <t>3.4.4.3</t>
+  </si>
+  <si>
+    <t>User must be able to see different types of events</t>
+  </si>
+  <si>
+    <t>3.3.4.2</t>
+  </si>
+  <si>
+    <t>System displays a calendar with different events</t>
   </si>
 </sst>
 </file>
@@ -1137,9 +1242,6 @@
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,9 +1258,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1173,12 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1195,45 +1288,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1242,6 +1296,31 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1261,54 +1340,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3111,536 +3195,536 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -3666,774 +3750,774 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="28" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28" t="s">
+      <c r="H22" s="27"/>
+      <c r="I22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28" t="s">
+      <c r="H24" s="27"/>
+      <c r="I24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="30" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H3:I6"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="D42:F43"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H3:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="92" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="19" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4452,732 +4536,732 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="28" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="30" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D4:F5"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="D42:F43"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D4:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="13" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5195,674 +5279,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F5"/>
+    <sheetView topLeftCell="A21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="C16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="D42:F43"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5880,674 +6046,764 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="C16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="D42:F43"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6571,668 +6827,668 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="D42:F43"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7251,673 +7507,673 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="45">
+      <c r="B9" s="9"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="H11" s="45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="28" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="46" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="18"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="18"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="39"/>
-      <c r="H46" s="15" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="39"/>
-      <c r="H47" s="45">
+      <c r="B47" s="9"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="28">
         <f>COUNTIF(I16:I38,"Pass")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="39"/>
-      <c r="H48" s="45">
+      <c r="B48" s="9"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="28">
         <f>COUNTIF(I16:I38,"Fail")/COUNTA(I16:I38)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="45">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="28">
         <f>COUNTIF(I16:I38,"Not Run")/COUNTA(I16:I38)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C7:F11"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I44"/>
     <mergeCell ref="D42:F43"/>
     <mergeCell ref="C45:F49"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="C7:F11"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I11">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Not Run">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Not Run">
       <formula>NOT(ISERROR(SEARCH("Not Run",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
